--- a/ОписаниеИзменений/Описание изменений по форме/0003_Доработки документов для отражения в них информации о распределении.xlsx
+++ b/ОписаниеИзменений/Описание изменений по форме/0003_Доработки документов для отражения в них информации о распределении.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\IGS_BSO\ОписаниеИзменений\Описание изменений по форме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5BE2AE-0EA1-46FE-B5DF-7B2BB27C134C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44068C5-5646-443A-BFF0-CE083DFBBDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
     <t>Подсистема игсМодифицированныеОбъектыМетаданных</t>
   </si>
   <si>
-    <t>включены объекты: Документ.ПередачаМатериаловВЭксплуатацию</t>
+    <t>Включены объекты: Документ.ПередачаМатериаловВЭксплуатацию</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -216,11 +216,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -250,45 +287,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,6 +309,51 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +638,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +716,10 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -705,10 +748,10 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -737,10 +780,10 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -769,10 +812,10 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -833,8 +876,8 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -863,10 +906,10 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -895,10 +938,10 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -927,10 +970,10 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -984,11 +1027,11 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1048,7 +1091,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1082,7 +1125,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +1157,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1189,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1180,9 +1223,9 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1208,9 +1251,9 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1236,9 +1279,9 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1264,9 +1307,9 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1292,9 +1335,9 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1320,9 +1363,9 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1348,9 +1391,9 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1376,9 +1419,9 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1404,9 +1447,9 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1432,9 +1475,9 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1460,9 +1503,9 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1488,9 +1531,9 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1516,9 +1559,9 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1544,9 +1587,9 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1572,9 +1615,9 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1600,9 +1643,9 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1628,9 +1671,9 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="24"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1656,9 +1699,9 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1684,9 +1727,9 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="24"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1712,9 +1755,9 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="24"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1740,9 +1783,9 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1768,9 +1811,9 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1796,9 +1839,9 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1824,9 +1867,9 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1852,9 +1895,9 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1880,9 +1923,9 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1908,9 +1951,9 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1936,9 +1979,9 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1964,9 +2007,9 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1992,9 +2035,9 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2020,9 +2063,9 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8"/>
       <c r="F49" s="1"/>
@@ -2048,9 +2091,9 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2076,9 +2119,9 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2104,9 +2147,9 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -28649,18 +28692,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
